--- a/GradedExercise - Copy.xlsx
+++ b/GradedExercise - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HS19_projects\webeC\hs19-cr-webec-ge-lucafluri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C5342B-D3E5-490B-AB25-0CD0DF912FD9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C329BA4-72B8-4B2F-9ADC-50C9B00FD17F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,7 +197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -242,8 +242,22 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,8 +278,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -298,12 +316,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -317,11 +337,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -661,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -701,10 +724,10 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="13">
+      <c r="D4" s="14">
         <v>5</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="G4">
@@ -712,10 +735,10 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="13">
+      <c r="D5" s="14">
         <v>15</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="G5">
@@ -746,10 +769,10 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="13">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>2</v>
       </c>
       <c r="G8">
@@ -768,10 +791,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="13">
+      <c r="D10" s="14">
         <v>3</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>9</v>
       </c>
       <c r="G10">
@@ -790,10 +813,10 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="13">
+      <c r="D12" s="14">
         <v>5</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G12">
@@ -850,10 +873,10 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="13">
+      <c r="D17" s="14">
         <v>5</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="14" t="s">
         <v>13</v>
       </c>
       <c r="G17">
@@ -861,10 +884,10 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="13">
-        <v>2</v>
-      </c>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="14">
+        <v>2</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G18">
@@ -872,10 +895,10 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="13">
-        <v>2</v>
-      </c>
-      <c r="E19" s="13" t="s">
+      <c r="D19" s="14">
+        <v>2</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G19">
@@ -883,10 +906,10 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="13">
-        <v>2</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="14">
+        <v>2</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G20">
@@ -894,10 +917,10 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="13">
-        <v>2</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="14">
+        <v>2</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>15</v>
       </c>
       <c r="G21">
@@ -905,10 +928,10 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="13">
-        <v>2</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="D22" s="14">
+        <v>2</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>16</v>
       </c>
       <c r="G22">
@@ -950,10 +973,10 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="13">
-        <v>2</v>
-      </c>
-      <c r="E26" s="13" t="s">
+      <c r="D26" s="14">
+        <v>2</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G26">
@@ -961,10 +984,10 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" s="14">
+        <v>2</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G27">
@@ -972,10 +995,10 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D28" s="13">
+      <c r="D28" s="14">
         <v>5</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G28">

--- a/GradedExercise - Copy.xlsx
+++ b/GradedExercise - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HS19_projects\webeC\hs19-cr-webec-ge-lucafluri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C329BA4-72B8-4B2F-9ADC-50C9B00FD17F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497B7D6D-C5E1-44D4-BE79-DB62DB8F5ADD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -735,10 +735,10 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>15</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G5">
@@ -813,10 +813,10 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>5</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>7</v>
       </c>
       <c r="G12">

--- a/GradedExercise - Copy.xlsx
+++ b/GradedExercise - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HS19_projects\webeC\hs19-cr-webec-ge-lucafluri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497B7D6D-C5E1-44D4-BE79-DB62DB8F5ADD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF38F02-3DF2-46B9-BF10-391DCD89206F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:E18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -724,14 +724,14 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="14">
-        <v>5</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="13">
+        <v>5</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -761,11 +761,11 @@
       </c>
       <c r="G6" s="3">
         <f>SUM(G4:G5)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H6" s="3">
         <f>MIN(C6,G6)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -787,18 +787,18 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>3</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -820,7 +820,7 @@
         <v>7</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -850,11 +850,11 @@
       </c>
       <c r="G14" s="3">
         <f>SUM(G8:G13)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H14" s="3">
         <f>MIN(C14,G14)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -869,7 +869,7 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -880,7 +880,7 @@
         <v>13</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -891,7 +891,7 @@
         <v>12</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -902,7 +902,7 @@
         <v>11</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -954,11 +954,11 @@
       </c>
       <c r="G23" s="3">
         <f>SUM(G16:G22)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H23" s="3">
         <f>MIN(C23,G23)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -969,7 +969,7 @@
         <v>22</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -1032,11 +1032,11 @@
       </c>
       <c r="G30" s="3">
         <f>SUM(G25:G29)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" s="3">
         <f>MIN(C30,G30)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -1052,7 +1052,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="10">
         <f>SUM(H4:H30)</f>
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -1114,7 +1114,7 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9">
         <f>Bonus-Malus</f>
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="5">
         <f>1 + TOTAL/10</f>
-        <v>1</v>
+        <v>5.8</v>
       </c>
     </row>
   </sheetData>

--- a/GradedExercise - Copy.xlsx
+++ b/GradedExercise - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HS19_projects\webeC\hs19-cr-webec-ge-lucafluri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF38F02-3DF2-46B9-BF10-391DCD89206F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D05D24-1E86-4910-9356-2936A66B1416}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="37">
   <si>
     <t>It works</t>
   </si>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -724,10 +724,10 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="13">
-        <v>5</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="14">
+        <v>5</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="G4">
@@ -791,10 +791,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="13">
+      <c r="D10" s="14">
         <v>3</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>9</v>
       </c>
       <c r="G10">
@@ -802,14 +802,14 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D11">
+      <c r="D11" s="13">
         <v>3</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -850,11 +850,11 @@
       </c>
       <c r="G14" s="3">
         <f>SUM(G8:G13)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H14" s="3">
         <f>MIN(C14,G14)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -906,10 +906,10 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="14">
-        <v>2</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
         <v>14</v>
       </c>
       <c r="G20">
@@ -917,10 +917,10 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="14">
-        <v>2</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
         <v>15</v>
       </c>
       <c r="G21">
@@ -928,10 +928,10 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="14">
-        <v>2</v>
-      </c>
-      <c r="E22" s="14" t="s">
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
         <v>16</v>
       </c>
       <c r="G22">
@@ -973,10 +973,10 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="14">
-        <v>2</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
         <v>21</v>
       </c>
       <c r="G26">
@@ -984,10 +984,10 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="14">
-        <v>2</v>
-      </c>
-      <c r="E27" s="14" t="s">
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
         <v>18</v>
       </c>
       <c r="G27">
@@ -995,10 +995,10 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D28" s="14">
-        <v>5</v>
-      </c>
-      <c r="E28" s="14" t="s">
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
         <v>19</v>
       </c>
       <c r="G28">
@@ -1052,7 +1052,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="10">
         <f>SUM(H4:H30)</f>
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -1114,7 +1114,7 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9">
         <f>Bonus-Malus</f>
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="5">
         <f>1 + TOTAL/10</f>
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
     </row>
   </sheetData>

--- a/GradedExercise - Copy.xlsx
+++ b/GradedExercise - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HS19_projects\webeC\hs19-cr-webec-ge-lucafluri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D05D24-1E86-4910-9356-2936A66B1416}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0872D8DF-AC34-4BD6-BEAD-73296F013F56}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>It works</t>
   </si>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -906,14 +906,14 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" s="14">
+        <v>2</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -954,11 +954,11 @@
       </c>
       <c r="G23" s="3">
         <f>SUM(G16:G22)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H23" s="3">
         <f>MIN(C23,G23)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -1052,7 +1052,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="10">
         <f>SUM(H4:H30)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -1114,7 +1114,7 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9">
         <f>Bonus-Malus</f>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="5">
         <f>1 + TOTAL/10</f>
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
     </row>
   </sheetData>

--- a/GradedExercise - Copy.xlsx
+++ b/GradedExercise - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HS19_projects\webeC\hs19-cr-webec-ge-lucafluri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0872D8DF-AC34-4BD6-BEAD-73296F013F56}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6899CC82-9EE1-4181-85DE-C148DD858620}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="37">
   <si>
     <t>It works</t>
   </si>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -724,10 +724,10 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="14">
-        <v>5</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="13">
+        <v>5</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G4">
@@ -791,14 +791,14 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="14">
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -850,11 +850,11 @@
       </c>
       <c r="G14" s="3">
         <f>SUM(G8:G13)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H14" s="3">
         <f>MIN(C14,G14)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -928,10 +928,10 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" s="14">
+        <v>2</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>16</v>
       </c>
       <c r="G22">
@@ -995,10 +995,10 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D28" s="14">
+        <v>5</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G28">
@@ -1052,7 +1052,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="10">
         <f>SUM(H4:H30)</f>
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -1114,7 +1114,7 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9">
         <f>Bonus-Malus</f>
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="5">
         <f>1 + TOTAL/10</f>
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
     </row>
   </sheetData>

--- a/GradedExercise - Copy.xlsx
+++ b/GradedExercise - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HS19_projects\webeC\hs19-cr-webec-ge-lucafluri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6899CC82-9EE1-4181-85DE-C148DD858620}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B86D74-9143-40CA-9B05-CE9679A055E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>It works</t>
   </si>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -873,10 +873,10 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="14">
-        <v>5</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="13">
+        <v>5</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G17">
@@ -884,10 +884,10 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="14">
-        <v>2</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="13">
+        <v>2</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G18">

--- a/GradedExercise - Copy.xlsx
+++ b/GradedExercise - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HS19_projects\webeC\hs19-cr-webec-ge-lucafluri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B86D74-9143-40CA-9B05-CE9679A055E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B3EB3E-9AC4-4C34-98AA-174A7212CDF0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -895,10 +895,10 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="14">
-        <v>2</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="13">
+        <v>2</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G19">
@@ -906,10 +906,10 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="14">
-        <v>2</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="D20" s="13">
+        <v>2</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>14</v>
       </c>
       <c r="G20">
@@ -928,10 +928,10 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="14">
-        <v>2</v>
-      </c>
-      <c r="E22" s="14" t="s">
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
         <v>16</v>
       </c>
       <c r="G22">
